--- a/biology/Origine et évolution du vivant/Lithodes_maja/Lithodes_maja.xlsx
+++ b/biology/Origine et évolution du vivant/Lithodes_maja/Lithodes_maja.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lithodes maja, aussi appelé Araignée épineuse ou Lithode arctique[1], voire Crabe épineux du Nord[2] est une espèce de crustacés appartenant à la famille des « crabes royaux », bien qu'ils n'appartiennent pas à la famille des crabes à proprement parler et sont plus proches des bernard l'hermite.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lithodes maja, aussi appelé Araignée épineuse ou Lithode arctique, voire Crabe épineux du Nord est une espèce de crustacés appartenant à la famille des « crabes royaux », bien qu'ils n'appartiennent pas à la famille des crabes à proprement parler et sont plus proches des bernard l'hermite.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Répartition et mode de vie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est principalement retrouvé dans les eaux froides sur les côtes de l'Europe et de l'Amérique du Nord. Il est présent majoritairement sur les côtes de la Norvège, au Nord des côtes des Îles Britanniques, ainsi qu'autour des îles Féroé, de l'Islande et de Svalbard et du Sud-Est du Groenland[3]. On en trouve également autour de Terre-neuve-et-Labrador au Canada[4].
-Lithodes maja est trouvable de 10 à 600 m de profondeur, et affectionne les fonds vaseux, sableux, coralliens, rocheux ou détritiques. À l'instar de la majorité des décapodes, il est principalement détritivore et carnivore[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est principalement retrouvé dans les eaux froides sur les côtes de l'Europe et de l'Amérique du Nord. Il est présent majoritairement sur les côtes de la Norvège, au Nord des côtes des Îles Britanniques, ainsi qu'autour des îles Féroé, de l'Islande et de Svalbard et du Sud-Est du Groenland. On en trouve également autour de Terre-neuve-et-Labrador au Canada.
+Lithodes maja est trouvable de 10 à 600 m de profondeur, et affectionne les fonds vaseux, sableux, coralliens, rocheux ou détritiques. À l'instar de la majorité des décapodes, il est principalement détritivore et carnivore.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lithodes maja possède une carapace quasi circulaire, avec un rostre pointu, de couleur rougeâtre ou marron et peut atteindre jusqu'à 14 cm une fois adulte. De longues épines sont présentes sur le rebord de sa carapace, ainsi que des petites épines, plus fines, sur les pattes[5]. Comme la plupart des lithodes, les femelles sont asymétriques, le côté gauche de l'abdomen étant beaucoup plus large que le côté droit, même si l'on a observé des symétries inversées dans la nature[6]. 
-De plus, comme chez la plupart des Lithodes, la 5e paire de péréiopodes n'est pas utilisée pour la locomotion, mais plutôt pour nettoyer la carapace, les branchies et le transfert de spermatozoïdes[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lithodes maja possède une carapace quasi circulaire, avec un rostre pointu, de couleur rougeâtre ou marron et peut atteindre jusqu'à 14 cm une fois adulte. De longues épines sont présentes sur le rebord de sa carapace, ainsi que des petites épines, plus fines, sur les pattes. Comme la plupart des lithodes, les femelles sont asymétriques, le côté gauche de l'abdomen étant beaucoup plus large que le côté droit, même si l'on a observé des symétries inversées dans la nature. 
+De plus, comme chez la plupart des Lithodes, la 5e paire de péréiopodes n'est pas utilisée pour la locomotion, mais plutôt pour nettoyer la carapace, les branchies et le transfert de spermatozoïdes.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle porte ses œufs de décembre à avril[8], et produit très peu d’œufs. Le développement des larves prend environ sept semaines[9]. Comme pour la plupart des décapodes, les œufs des lithodes se déposent sur les fonds marins avant d'éclore et, après des séries de mues successives, deviennent des lithodes adultes.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle porte ses œufs de décembre à avril, et produit très peu d’œufs. Le développement des larves prend environ sept semaines. Comme pour la plupart des décapodes, les œufs des lithodes se déposent sur les fonds marins avant d'éclore et, après des séries de mues successives, deviennent des lithodes adultes.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Pêche</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lithodes maja pondant peu d'œufs, comparé au plus commun crabe royal, limitant ainsi son abondance et le rendant impropre à l'exploitation commerciale[10]. Ne souffrant pas de surpêche, la Lithodes maja n'est pas considérée comme menacée[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lithodes maja pondant peu d'œufs, comparé au plus commun crabe royal, limitant ainsi son abondance et le rendant impropre à l'exploitation commerciale. Ne souffrant pas de surpêche, la Lithodes maja n'est pas considérée comme menacée.
 			Vue ventrale de Lithodes maja.
 			Vue dorsale de Lithodes maja.
 			Lithodes maja sur un ponton.
